--- a/数据整理/stocks/A股/科创板/688232-新点软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688232-新点软件.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,597 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6901</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4156</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3956</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688232-新点软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688232-新点软件.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.42</v>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6736</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1219,13 +1262,423 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688232-新点软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688232-新点软件.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005729</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方人工智能主题混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1115</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002577</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方新兴龙头灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1081</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +532,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6736</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,13 +1555,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1224,36 +1612,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009646</t>
+          <t>005729</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方核心成长混合A</t>
+          <t>南方人工智能主题混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.79</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>93.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6736</t>
+          <t>0.1115</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1262,424 +1650,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010132</t>
+          <t>002577</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方创新成长混合A</t>
+          <t>南方新兴龙头灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3224</t>
+          <t>0.1081</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001150</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通互联网传媒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.95</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2752</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001959</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1811</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009647</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方核心成长混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1105</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005729</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方人工智能主题混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0977</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002577</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方新兴龙头灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.98</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0947</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010133</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方创新成长混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.84</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001723</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>013142</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.22</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688232-新点软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688232-新点软件.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>1.86</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.42</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -532,6 +549,1542 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1926</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1476</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0442</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7908</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5841</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5808</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4475</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3927</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3804</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3590</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3004</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015373</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012904</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根鑫睿优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012669</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015374</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012670</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -967,7 +2520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1555,7 +3108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688232-新点软件.xlsx
+++ b/数据整理/stocks/A股/科创板/688232-新点软件.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>11.21</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>1.86</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.42</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -549,6 +566,2788 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8546</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9172</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8251</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6768</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5189</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4423</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2451</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013550</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015373</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华商价值共享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014267</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015374</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016157</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富数字经济核心产业一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>016238</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏数字经济龙头混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012498</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013551</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>016237</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏数字经济龙头混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012499</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>016070</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014268</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>016158</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富数字经济核心产业一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>016050</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015198</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015199</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票D</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>016159</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇添富数字经济核心产业一年持有期混合D</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2084,7 +4883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2520,7 +5319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3108,7 +5907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
